--- a/統計.xlsx
+++ b/統計.xlsx
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:K11"/>
+  <dimension ref="D5:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>0.42638888888888887</v>
       </c>
       <c r="G10" s="1">
-        <v>48455</v>
+        <v>18455</v>
       </c>
       <c r="H10" s="1">
         <v>14881</v>
@@ -494,6 +494,55 @@
       </c>
       <c r="K11" s="1">
         <v>13683</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4825</v>
+      </c>
+      <c r="G12" s="1">
+        <v>18463</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14884</v>
+      </c>
+      <c r="I12" s="1">
+        <v>13195</v>
+      </c>
+      <c r="J12" s="1">
+        <v>17111</v>
+      </c>
+      <c r="K12" s="1">
+        <v>13683</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4828</v>
+      </c>
+      <c r="G13" s="1">
+        <v>48464</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14885</v>
+      </c>
+      <c r="I13" s="1">
+        <v>13197</v>
+      </c>
+      <c r="J13" s="1">
+        <v>17112</v>
+      </c>
+      <c r="K13" s="1">
+        <v>13695</v>
       </c>
     </row>
   </sheetData>

--- a/統計.xlsx
+++ b/統計.xlsx
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:K13"/>
+  <dimension ref="D5:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +545,32 @@
         <v>13695</v>
       </c>
     </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>43314</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4829</v>
+      </c>
+      <c r="G14" s="1">
+        <v>48468</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14888</v>
+      </c>
+      <c r="I14" s="1">
+        <v>13202</v>
+      </c>
+      <c r="J14" s="1">
+        <v>17116</v>
+      </c>
+      <c r="K14" s="1">
+        <v>13697</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
